--- a/mensagens/Contatos.xlsx
+++ b/mensagens/Contatos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\mensagens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\robos\mensagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F2BA1A-844C-4B10-80FB-C284587FD683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D52DFCC-44CD-4A27-BE3C-069A02885E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BA1F9659-4A8F-481A-87C9-39581FC1F043}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Número</t>
   </si>
@@ -47,12 +47,37 @@
   <si>
     <t>Mensagem</t>
   </si>
+  <si>
+    <t>Helder</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Erro</t>
+  </si>
+  <si>
+    <t>21980657337</t>
+  </si>
+  <si>
+    <t>2197538</t>
+  </si>
+  <si>
+    <t>21975386145</t>
+  </si>
+  <si>
+    <t>Hora de convidar seu cliente para conhecer o mais novo SUCESSO do Pontal Oceânico, o *LANAI*
+Convide seu cliente para um café da manhã delicioso e ainda conhecer o decorado mais charmoso do Pontal Oceânico.
+*Sábado e Domingo e domingo - 16 e 17/11*
+*A partir das 09h*
+*Avenida das Américas, 19.102*</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +208,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -529,11 +562,22 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -889,19 +933,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193ADAB6-8827-4EAB-B23A-048FA81C1EE3}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -909,6 +955,39 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
